--- a/teaching/traditional_assets/database/data/taiwan/taiwan_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06280000000000001</v>
+        <v>0.09210000000000002</v>
       </c>
       <c r="E2">
-        <v>0.10525</v>
+        <v>0.151</v>
       </c>
       <c r="G2">
-        <v>0.1062797168316134</v>
+        <v>0.05535205535205535</v>
       </c>
       <c r="H2">
-        <v>0.1042440038037544</v>
+        <v>0.05423722815027163</v>
       </c>
       <c r="I2">
-        <v>0.05079530217032078</v>
+        <v>0.02213551343986126</v>
       </c>
       <c r="J2">
-        <v>0.03921411178780244</v>
+        <v>0.01746022222379003</v>
       </c>
       <c r="K2">
-        <v>727.88</v>
+        <v>1646.59</v>
       </c>
       <c r="L2">
-        <v>0.2563589617159159</v>
+        <v>0.2913751305055652</v>
       </c>
       <c r="M2">
-        <v>306.02</v>
+        <v>681.7889</v>
       </c>
       <c r="N2">
-        <v>0.03087680355160932</v>
+        <v>0.03088959214925833</v>
       </c>
       <c r="O2">
-        <v>0.4204264439193273</v>
+        <v>0.4140611202545868</v>
       </c>
       <c r="P2">
-        <v>306.02</v>
+        <v>664.4189</v>
       </c>
       <c r="Q2">
-        <v>0.03087680355160932</v>
+        <v>0.03010261510162289</v>
       </c>
       <c r="R2">
-        <v>0.4204264439193273</v>
+        <v>0.4035120461074099</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>17.36999999999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.02547709415627035</v>
       </c>
       <c r="U2">
-        <v>877.2</v>
+        <v>4156.4</v>
       </c>
       <c r="V2">
-        <v>0.08850771869639795</v>
+        <v>0.1883126885890593</v>
       </c>
       <c r="W2">
-        <v>0.2243444480414374</v>
+        <v>0.2121902107987375</v>
       </c>
       <c r="X2">
-        <v>0.04370052744865374</v>
+        <v>0.03411710226802814</v>
       </c>
       <c r="Y2">
-        <v>0.1806439205927836</v>
+        <v>0.1780731085307093</v>
       </c>
       <c r="Z2">
-        <v>0.1065144205633491</v>
+        <v>0.1153282442729397</v>
       </c>
       <c r="AA2">
-        <v>0.0004079998919533807</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03248718528076695</v>
+        <v>0.02430309416525871</v>
       </c>
       <c r="AC2">
-        <v>-0.03106889143534727</v>
+        <v>-0.02332028293332264</v>
       </c>
       <c r="AD2">
-        <v>26621.139</v>
+        <v>47272.305</v>
       </c>
       <c r="AE2">
-        <v>83.8944927390409</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>26705.03349273904</v>
+        <v>47272.305</v>
       </c>
       <c r="AG2">
-        <v>25827.83349273904</v>
+        <v>43115.905</v>
       </c>
       <c r="AH2">
-        <v>0.7293262253005818</v>
+        <v>0.6817061810805692</v>
       </c>
       <c r="AI2">
-        <v>0.8531868677672075</v>
+        <v>0.7547157656618836</v>
       </c>
       <c r="AJ2">
-        <v>0.7226826107233301</v>
+        <v>0.661411611284674</v>
       </c>
       <c r="AK2">
-        <v>0.8489537574721966</v>
+        <v>0.7372823179676367</v>
       </c>
       <c r="AL2">
-        <v>0.007</v>
+        <v>0.166</v>
       </c>
       <c r="AM2">
-        <v>-4.544</v>
+        <v>-8.238999999999999</v>
       </c>
       <c r="AN2">
-        <v>80.42105660650954</v>
+        <v>151.4458416095342</v>
       </c>
       <c r="AO2">
-        <v>18887.14285714286</v>
+        <v>753.55421686747</v>
       </c>
       <c r="AP2">
-        <v>78.02452251735244</v>
+        <v>138.1300217850964</v>
       </c>
       <c r="AQ2">
-        <v>-29.09551056338027</v>
+        <v>-15.18266779949023</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0225</v>
+        <v>0.0495</v>
       </c>
       <c r="E3">
-        <v>-0.0207</v>
+        <v>0.0127</v>
       </c>
       <c r="G3">
-        <v>0.5088888888888889</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="H3">
-        <v>0.1877777777777778</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="I3">
-        <v>0.1443902022441468</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="J3">
-        <v>0.1106431898591776</v>
+        <v>0.1304776119402985</v>
       </c>
       <c r="K3">
-        <v>1.98</v>
+        <v>2.79</v>
       </c>
       <c r="L3">
-        <v>0.11</v>
+        <v>0.1328571428571429</v>
       </c>
       <c r="M3">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="N3">
-        <v>0.075</v>
+        <v>0.0501123595505618</v>
       </c>
       <c r="O3">
-        <v>1.272727272727273</v>
+        <v>0.7992831541218638</v>
       </c>
       <c r="P3">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="Q3">
-        <v>0.075</v>
+        <v>0.0501123595505618</v>
       </c>
       <c r="R3">
-        <v>1.272727272727273</v>
+        <v>0.7992831541218638</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="V3">
-        <v>0.119047619047619</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="W3">
-        <v>0.1523076923076923</v>
+        <v>0.2196850393700787</v>
       </c>
       <c r="X3">
-        <v>0.02798326307360683</v>
+        <v>0.0180597275576015</v>
       </c>
       <c r="Y3">
-        <v>0.1243244292340855</v>
+        <v>0.2016253118124773</v>
       </c>
       <c r="Z3">
-        <v>2.382565403564791</v>
+        <v>2.349256068911511</v>
       </c>
       <c r="AA3">
-        <v>0.2636146362985273</v>
+        <v>0.3065253217078274</v>
       </c>
       <c r="AB3">
-        <v>0.02796087859629151</v>
+        <v>0.01807043912548618</v>
       </c>
       <c r="AC3">
-        <v>0.2356537577022358</v>
+        <v>0.2884548825823412</v>
       </c>
       <c r="AD3">
-        <v>0.239</v>
+        <v>0.305</v>
       </c>
       <c r="AE3">
-        <v>0.3148817980267912</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.5538817980267912</v>
+        <v>0.305</v>
       </c>
       <c r="AG3">
-        <v>-3.446118201973209</v>
+        <v>-5.195</v>
       </c>
       <c r="AH3">
-        <v>0.01621724292723854</v>
+        <v>0.006807275973663654</v>
       </c>
       <c r="AI3">
-        <v>0.0417901567606595</v>
+        <v>0.02177793645126741</v>
       </c>
       <c r="AJ3">
-        <v>-0.11428439711529</v>
+        <v>-0.13217147945554</v>
       </c>
       <c r="AK3">
-        <v>-0.3723970412835862</v>
+        <v>-0.610817166372722</v>
       </c>
       <c r="AL3">
-        <v>0.007</v>
+        <v>0.02</v>
       </c>
       <c r="AM3">
-        <v>-0.054</v>
+        <v>-0.045</v>
       </c>
       <c r="AN3">
-        <v>0.07510999371464487</v>
+        <v>0.07549504950495049</v>
       </c>
       <c r="AO3">
-        <v>358.5714285714286</v>
+        <v>164.5</v>
       </c>
       <c r="AP3">
-        <v>-1.083003834686741</v>
+        <v>-1.285891089108911</v>
       </c>
       <c r="AQ3">
-        <v>-46.48148148148148</v>
+        <v>-73.11111111111111</v>
       </c>
     </row>
     <row r="4">
@@ -859,103 +859,103 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="G4">
-        <v>0.3543230806490676</v>
+        <v>0.305161485058859</v>
       </c>
       <c r="H4">
-        <v>0.3543230806490676</v>
+        <v>0.305161485058859</v>
       </c>
       <c r="I4">
-        <v>0.1608056763646413</v>
+        <v>0.1225475399939632</v>
       </c>
       <c r="J4">
-        <v>0.1191196284728661</v>
+        <v>0.09609163313327722</v>
       </c>
       <c r="K4">
-        <v>96.2</v>
+        <v>105.5</v>
       </c>
       <c r="L4">
-        <v>0.116493097602325</v>
+        <v>0.1061474997484656</v>
       </c>
       <c r="M4">
-        <v>48.6</v>
+        <v>60.59999999999999</v>
       </c>
       <c r="N4">
-        <v>0.04203061489232898</v>
+        <v>0.0509757738896366</v>
       </c>
       <c r="O4">
-        <v>0.5051975051975052</v>
+        <v>0.5744075829383886</v>
       </c>
       <c r="P4">
-        <v>48.6</v>
+        <v>46.9</v>
       </c>
       <c r="Q4">
-        <v>0.04203061489232898</v>
+        <v>0.03945154777927322</v>
       </c>
       <c r="R4">
-        <v>0.5051975051975052</v>
+        <v>0.4445497630331753</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.226072607260726</v>
       </c>
       <c r="U4">
-        <v>155.5</v>
+        <v>252.9</v>
       </c>
       <c r="V4">
-        <v>0.1344806711061143</v>
+        <v>0.212735531628533</v>
       </c>
       <c r="W4">
-        <v>0.2747001713306682</v>
+        <v>0.2046953822273962</v>
       </c>
       <c r="X4">
-        <v>0.05834470393650089</v>
+        <v>0.05067887208046057</v>
       </c>
       <c r="Y4">
-        <v>0.2163554673941673</v>
+        <v>0.1540165101469356</v>
       </c>
       <c r="Z4">
-        <v>0.1818608907470382</v>
+        <v>0.1822933861560471</v>
       </c>
       <c r="AA4">
-        <v>0.02166320173953168</v>
+        <v>0.01751686918512971</v>
       </c>
       <c r="AB4">
-        <v>0.03248718528076695</v>
+        <v>0.02509224475030496</v>
       </c>
       <c r="AC4">
-        <v>-0.01082398354123526</v>
+        <v>-0.007575375565175253</v>
       </c>
       <c r="AD4">
-        <v>5060.1</v>
+        <v>5572</v>
       </c>
       <c r="AE4">
-        <v>21.13336229039599</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>5081.233362290396</v>
+        <v>5572</v>
       </c>
       <c r="AG4">
-        <v>4925.733362290396</v>
+        <v>5319.1</v>
       </c>
       <c r="AH4">
-        <v>0.8146222340083146</v>
+        <v>0.8241628209679328</v>
       </c>
       <c r="AI4">
-        <v>0.8864935599348922</v>
+        <v>0.8834908352888945</v>
       </c>
       <c r="AJ4">
-        <v>0.8098826607612432</v>
+        <v>0.8173297069715268</v>
       </c>
       <c r="AK4">
-        <v>0.8833283525695143</v>
+        <v>0.8786236971208642</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>16.50822132324155</v>
+        <v>18.08503732554365</v>
       </c>
       <c r="AP4">
-        <v>16.06985959249118</v>
+        <v>17.26419993508601</v>
       </c>
     </row>
     <row r="5">
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.07400000000000001</v>
+        <v>0.0779</v>
       </c>
       <c r="E5">
-        <v>0.171</v>
+        <v>0.19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,34 +999,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003917658035754988</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002899090321506637</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>476.8</v>
+        <v>565.1</v>
       </c>
       <c r="L5">
-        <v>0.332056549899018</v>
+        <v>0.3653348849237135</v>
       </c>
       <c r="M5">
-        <v>174.3</v>
+        <v>234.2889</v>
       </c>
       <c r="N5">
-        <v>0.02844738946646864</v>
+        <v>0.02558437346437346</v>
       </c>
       <c r="O5">
-        <v>0.3655620805369127</v>
+        <v>0.4145972394266501</v>
       </c>
       <c r="P5">
-        <v>174.3</v>
+        <v>234.2889</v>
       </c>
       <c r="Q5">
-        <v>0.02844738946646864</v>
+        <v>0.02558437346437346</v>
       </c>
       <c r="R5">
-        <v>0.3655620805369127</v>
+        <v>0.4145972394266501</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,67 +1035,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>620</v>
+        <v>1126.2</v>
       </c>
       <c r="V5">
-        <v>0.1011897961515236</v>
+        <v>0.122981162981163</v>
       </c>
       <c r="W5">
-        <v>0.2512515149918322</v>
+        <v>0.2644980107652703</v>
       </c>
       <c r="X5">
-        <v>0.04000811391257139</v>
+        <v>0.0282664880665113</v>
       </c>
       <c r="Y5">
-        <v>0.2112434010792608</v>
+        <v>0.236231522698759</v>
       </c>
       <c r="Z5">
-        <v>0.1407337635970397</v>
+        <v>0.1268916228395077</v>
       </c>
       <c r="AA5">
-        <v>0.0004079998919533807</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03147689132730065</v>
+        <v>0.02312662228643282</v>
       </c>
       <c r="AC5">
-        <v>-0.03106889143534727</v>
+        <v>-0.02312662228643282</v>
       </c>
       <c r="AD5">
-        <v>10675.4</v>
+        <v>13473.7</v>
       </c>
       <c r="AE5">
-        <v>49.37317413229707</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>10724.7731741323</v>
+        <v>13473.7</v>
       </c>
       <c r="AG5">
-        <v>10104.7731741323</v>
+        <v>12347.5</v>
       </c>
       <c r="AH5">
-        <v>0.6364143061908911</v>
+        <v>0.5953595036940154</v>
       </c>
       <c r="AI5">
-        <v>0.8258545797030712</v>
+        <v>0.8049863183930983</v>
       </c>
       <c r="AJ5">
-        <v>0.6225266218957175</v>
+        <v>0.5741687979539642</v>
       </c>
       <c r="AK5">
-        <v>0.8171235611444688</v>
+        <v>0.7909182915268134</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-4.49</v>
-      </c>
-      <c r="AN5">
-        <v>688.7354838709678</v>
-      </c>
-      <c r="AP5">
-        <v>651.9208499440191</v>
+        <v>-8.34</v>
       </c>
       <c r="AQ5">
         <v>-0</v>
@@ -1109,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IBF Financial Holdings Co., Ltd. (TSEC:2889)</t>
+          <t>Yuanta Financial Holding Co., Ltd (TSEC:2885)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,10 +1112,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0516</v>
+        <v>0.09210000000000002</v>
       </c>
       <c r="E6">
-        <v>0.0605</v>
+        <v>0.119</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1130,34 +1124,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01016588144611769</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008503536052412912</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>83.59999999999999</v>
+        <v>787.8</v>
       </c>
       <c r="L6">
-        <v>0.4025036109773712</v>
+        <v>0.3238243998684643</v>
       </c>
       <c r="M6">
-        <v>40.8</v>
+        <v>262</v>
       </c>
       <c r="N6">
-        <v>0.0383638928067701</v>
+        <v>0.02950948921552064</v>
       </c>
       <c r="O6">
-        <v>0.4880382775119617</v>
+        <v>0.3325717187103326</v>
       </c>
       <c r="P6">
-        <v>40.8</v>
+        <v>262</v>
       </c>
       <c r="Q6">
-        <v>0.0383638928067701</v>
+        <v>0.02950948921552064</v>
       </c>
       <c r="R6">
-        <v>0.4880382775119617</v>
+        <v>0.3325717187103326</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1166,67 +1160,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>76.8</v>
+        <v>2641.5</v>
       </c>
       <c r="V6">
-        <v>0.07221438645980253</v>
+        <v>0.2975164723770907</v>
       </c>
       <c r="W6">
-        <v>0.07996174079387852</v>
+        <v>0.1067017011593889</v>
       </c>
       <c r="X6">
-        <v>0.07615509234600151</v>
+        <v>0.03042624206767388</v>
       </c>
       <c r="Y6">
-        <v>0.003806648447877009</v>
+        <v>0.07627545909171499</v>
       </c>
       <c r="Z6">
-        <v>0.0248322812774189</v>
+        <v>0.1274992269756668</v>
       </c>
       <c r="AA6">
-        <v>0.0002111621991061898</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03282614267139208</v>
+        <v>0.02351394358021246</v>
       </c>
       <c r="AC6">
-        <v>-0.03261498047228589</v>
+        <v>-0.02351394358021246</v>
       </c>
       <c r="AD6">
-        <v>7397.7</v>
+        <v>15814.5</v>
       </c>
       <c r="AE6">
-        <v>6.942732118206779</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>7404.642732118206</v>
+        <v>15814.5</v>
       </c>
       <c r="AG6">
-        <v>7327.842732118206</v>
+        <v>13173</v>
       </c>
       <c r="AH6">
-        <v>0.8744116586549342</v>
+        <v>0.6404446604300814</v>
       </c>
       <c r="AI6">
-        <v>0.853507724041871</v>
+        <v>0.6338172111962551</v>
       </c>
       <c r="AJ6">
-        <v>0.8732622377668582</v>
+        <v>0.597374328276988</v>
       </c>
       <c r="AK6">
-        <v>0.8521993226692425</v>
+        <v>0.5904606516448002</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>2113.628571428571</v>
-      </c>
-      <c r="AP6">
-        <v>2093.669352033773</v>
       </c>
     </row>
     <row r="7">
@@ -1237,118 +1225,240 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>IBF Financial Holdings Co., Ltd. (TSEC:2889)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.112</v>
+      </c>
+      <c r="E7">
+        <v>0.151</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>102.6</v>
+      </c>
+      <c r="L7">
+        <v>0.38</v>
+      </c>
+      <c r="M7">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.05100007547739451</v>
+      </c>
+      <c r="O7">
+        <v>0.6585769980506823</v>
+      </c>
+      <c r="P7">
+        <v>63.9</v>
+      </c>
+      <c r="Q7">
+        <v>0.048230055098498</v>
+      </c>
+      <c r="R7">
+        <v>0.6228070175438597</v>
+      </c>
+      <c r="S7">
+        <v>3.669999999999995</v>
+      </c>
+      <c r="T7">
+        <v>0.05431404469439093</v>
+      </c>
+      <c r="U7">
+        <v>111.9</v>
+      </c>
+      <c r="V7">
+        <v>0.08445920446826176</v>
+      </c>
+      <c r="W7">
+        <v>0.09015025041736227</v>
+      </c>
+      <c r="X7">
+        <v>0.06122600878392187</v>
+      </c>
+      <c r="Y7">
+        <v>0.0289242416334404</v>
+      </c>
+      <c r="Z7">
+        <v>0.03193841327597036</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0254097282158323</v>
+      </c>
+      <c r="AC7">
+        <v>-0.0254097282158323</v>
+      </c>
+      <c r="AD7">
+        <v>8214.9</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>8214.9</v>
+      </c>
+      <c r="AG7">
+        <v>8103</v>
+      </c>
+      <c r="AH7">
+        <v>0.8611186817333697</v>
+      </c>
+      <c r="AI7">
+        <v>0.8519559445781133</v>
+      </c>
+      <c r="AJ7">
+        <v>0.8594702956119603</v>
+      </c>
+      <c r="AK7">
+        <v>0.8502177220502597</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Hotai Finance Co., Ltd. (TSEC:6592)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.003108643137189956</v>
-      </c>
-      <c r="J7">
-        <v>0.002413808707161269</v>
-      </c>
-      <c r="K7">
-        <v>69.3</v>
-      </c>
-      <c r="L7">
-        <v>0.1969309462915601</v>
-      </c>
-      <c r="M7">
-        <v>39.8</v>
-      </c>
-      <c r="N7">
-        <v>0.02600457366873571</v>
-      </c>
-      <c r="O7">
-        <v>0.5743145743145743</v>
-      </c>
-      <c r="P7">
-        <v>39.8</v>
-      </c>
-      <c r="Q7">
-        <v>0.02600457366873571</v>
-      </c>
-      <c r="R7">
-        <v>0.5743145743145743</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>20.9</v>
-      </c>
-      <c r="V7">
-        <v>0.01365566808232604</v>
-      </c>
-      <c r="W7">
-        <v>0.2243444480414374</v>
-      </c>
-      <c r="X7">
-        <v>0.04370052744865374</v>
-      </c>
-      <c r="Y7">
-        <v>0.1806439205927836</v>
-      </c>
-      <c r="Z7">
-        <v>0.09937785502325906</v>
-      </c>
-      <c r="AA7">
-        <v>0.000239879131754153</v>
-      </c>
-      <c r="AB7">
-        <v>0.03726298897889983</v>
-      </c>
-      <c r="AC7">
-        <v>-0.03702310984714568</v>
-      </c>
-      <c r="AD7">
-        <v>3487.7</v>
-      </c>
-      <c r="AE7">
-        <v>6.130342400114271</v>
-      </c>
-      <c r="AF7">
-        <v>3493.830342400114</v>
-      </c>
-      <c r="AG7">
-        <v>3472.930342400114</v>
-      </c>
-      <c r="AH7">
-        <v>0.6953822906340026</v>
-      </c>
-      <c r="AI7">
-        <v>0.8973655710111753</v>
-      </c>
-      <c r="AJ7">
-        <v>0.6941098615823182</v>
-      </c>
-      <c r="AK7">
-        <v>0.8968116542239056</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>1503.318965517241</v>
-      </c>
-      <c r="AP7">
-        <v>1496.952733793153</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>82.8</v>
+      </c>
+      <c r="L8">
+        <v>0.2141748577340921</v>
+      </c>
+      <c r="M8">
+        <v>55.1</v>
+      </c>
+      <c r="N8">
+        <v>0.03729020032485111</v>
+      </c>
+      <c r="O8">
+        <v>0.6654589371980677</v>
+      </c>
+      <c r="P8">
+        <v>55.1</v>
+      </c>
+      <c r="Q8">
+        <v>0.03729020032485111</v>
+      </c>
+      <c r="R8">
+        <v>0.6654589371980677</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>18.4</v>
+      </c>
+      <c r="V8">
+        <v>0.01245262587980509</v>
+      </c>
+      <c r="W8">
+        <v>0.238204833141542</v>
+      </c>
+      <c r="X8">
+        <v>0.03780796246838241</v>
+      </c>
+      <c r="Y8">
+        <v>0.2003968706731596</v>
+      </c>
+      <c r="Z8">
+        <v>0.1013527684563758</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.02827096076124982</v>
+      </c>
+      <c r="AC8">
+        <v>-0.02827096076124982</v>
+      </c>
+      <c r="AD8">
+        <v>4196.9</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>4196.9</v>
+      </c>
+      <c r="AG8">
+        <v>4178.5</v>
+      </c>
+      <c r="AH8">
+        <v>0.7396070138338179</v>
+      </c>
+      <c r="AI8">
+        <v>0.8421253285711419</v>
+      </c>
+      <c r="AJ8">
+        <v>0.7387599229150827</v>
+      </c>
+      <c r="AK8">
+        <v>0.8415402896098926</v>
+      </c>
+      <c r="AL8">
+        <v>0.146</v>
+      </c>
+      <c r="AM8">
+        <v>0.146</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
